--- a/Job_Search_Tracker_Hana_Senatov_PYTHON_PT_OCT2021.xlsx
+++ b/Job_Search_Tracker_Hana_Senatov_PYTHON_PT_OCT2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\хана\Desktop\DI_Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9583B8-1847-4F43-9D5A-96E4CFCE4D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16DFD6F-9F71-4B71-AC1E-AC0BBF766314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Your Tracker v 1.1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Job Search Activity'!$A$1:$M$1011</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>NAME</t>
   </si>
@@ -638,7 +649,18 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
@@ -1005,7 +1027,7 @@
   </sheetPr>
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -29755,11 +29777,11 @@
   </sheetPr>
   <dimension ref="A1:AK1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -69279,8 +69301,8 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -69288,7 +69310,7 @@
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -69334,22 +69356,31 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37">
+        <v>44498</v>
+      </c>
       <c r="B4" s="38">
+        <f>32-(B2+B3)</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="40"/>
@@ -72424,9 +72455,14 @@
       <c r="A1001" s="43"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A1001">
+  <conditionalFormatting sqref="A6:A1001 A2:A4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>A2=42552</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>A2=42552</formula>
+      <formula>A5=42552</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -72440,7 +72476,8 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{1D2DDB21-EF92-4E66-A668-8C51BD2477D6}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{9E0A1AFB-B4CD-4EA8-9681-7DE28DE56FBA}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{78F237DF-34BE-4DAF-A395-A52454922E00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72647,7 +72684,9 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
